--- a/Config/DataTable/Attribute.xlsx
+++ b/Config/DataTable/Attribute.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SwordOfBenevolence\Config\DataTable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>MaxHp</t>
   </si>
@@ -72,84 +67,14 @@
     <t>EXP</t>
   </si>
   <si>
-    <t>CharacterLevel2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CharacterLevel16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CharacterLevel</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>17</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>C</t>
     </r>
     <r>
@@ -157,7 +82,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -173,14 +97,161 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CharacterLevel2</t>
+  </si>
+  <si>
+    <t>CharacterLevel3</t>
+  </si>
+  <si>
+    <t>CharacterLevel4</t>
+  </si>
+  <si>
+    <t>CharacterLevel5</t>
+  </si>
+  <si>
+    <t>CharacterLevel6</t>
+  </si>
+  <si>
+    <t>CharacterLevel7</t>
+  </si>
+  <si>
+    <t>CharacterLevel8</t>
+  </si>
+  <si>
+    <t>CharacterLevel9</t>
+  </si>
+  <si>
+    <t>CharacterLevel10</t>
+  </si>
+  <si>
+    <t>CharacterLevel11</t>
+  </si>
+  <si>
+    <t>CharacterLevel12</t>
+  </si>
+  <si>
+    <t>CharacterLevel13</t>
+  </si>
+  <si>
+    <t>CharacterLevel14</t>
+  </si>
+  <si>
+    <t>CharacterLevel15</t>
+  </si>
+  <si>
+    <t>CharacterLevel16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CharacterLevel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
+  </si>
+  <si>
+    <t>Skill10000_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10000_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10000_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10000_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10000_LV_5</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_5</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_5</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_5</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,30 +260,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -220,9 +613,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -230,21 +865,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,24 +1181,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -572,9 +1251,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -628,9 +1307,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -684,9 +1363,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -740,9 +1419,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -796,9 +1475,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -852,9 +1531,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -908,9 +1587,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -964,9 +1643,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -1020,9 +1699,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -1076,9 +1755,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -1132,9 +1811,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -1188,9 +1867,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -1244,9 +1923,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -1300,9 +1979,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -1356,9 +2035,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -1412,9 +2091,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>100</v>
@@ -1468,9 +2147,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>100</v>
@@ -1524,9 +2203,1409 @@
         <v>100</v>
       </c>
     </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>60</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>70</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>80</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>90</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>100</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>60</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>70</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>80</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>90</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>100</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>60</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>70</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>80</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>90</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>100</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>60</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>70</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>80</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>90</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>100</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>60</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>70</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>80</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>90</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>100</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Config/DataTable/Attribute.xlsx
+++ b/Config/DataTable/Attribute.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SwordOfBenevolence\Config\DataTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Attribute" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>MaxHp</t>
   </si>
@@ -240,18 +245,16 @@
   <si>
     <t>Skill10004_LV_5</t>
   </si>
+  <si>
+    <t>MCR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,345 +270,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -613,251 +292,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -869,61 +306,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1181,24 +574,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1233,25 +626,28 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1304,10 +700,13 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1360,10 +759,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1416,10 +818,13 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1472,10 +877,13 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1528,10 +936,13 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1584,10 +995,13 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1640,10 +1054,13 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1696,10 +1113,13 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1752,10 +1172,13 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -1808,10 +1231,13 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1864,10 +1290,13 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1920,10 +1349,13 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1976,10 +1408,13 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -2032,10 +1467,13 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2088,10 +1526,13 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2144,10 +1585,13 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2200,10 +1644,13 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2250,16 +1697,19 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>60</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2306,16 +1756,19 @@
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>70</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2362,16 +1815,19 @@
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>80</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2418,16 +1874,19 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>90</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2474,16 +1933,19 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2530,16 +1992,19 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>60</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2586,16 +2051,19 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>70</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2642,16 +2110,19 @@
         <v>0</v>
       </c>
       <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>80</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2698,16 +2169,19 @@
         <v>0</v>
       </c>
       <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>90</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2754,16 +2228,19 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2810,16 +2287,19 @@
         <v>0</v>
       </c>
       <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>60</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2866,16 +2346,19 @@
         <v>0</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>70</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
       <c r="R30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2922,16 +2405,19 @@
         <v>0</v>
       </c>
       <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>80</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2978,16 +2464,19 @@
         <v>0</v>
       </c>
       <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>90</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
       <c r="R32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -3034,16 +2523,19 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -3090,16 +2582,19 @@
         <v>0</v>
       </c>
       <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>60</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
       <c r="R34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3146,16 +2641,19 @@
         <v>0</v>
       </c>
       <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>70</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
       <c r="R35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -3202,16 +2700,19 @@
         <v>0</v>
       </c>
       <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>80</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
       <c r="R36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -3258,16 +2759,19 @@
         <v>0</v>
       </c>
       <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>90</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
       <c r="R37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -3314,16 +2818,19 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -3370,16 +2877,19 @@
         <v>0</v>
       </c>
       <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>60</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
       <c r="R39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -3426,16 +2936,19 @@
         <v>0</v>
       </c>
       <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>70</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
       <c r="R40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -3482,16 +2995,19 @@
         <v>0</v>
       </c>
       <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>80</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
       <c r="R41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -3538,16 +3054,19 @@
         <v>0</v>
       </c>
       <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>90</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
       <c r="R42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -3594,18 +3113,21 @@
         <v>0</v>
       </c>
       <c r="P43">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43">
         <v>0</v>
       </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Config/DataTable/Attribute.xlsx
+++ b/Config/DataTable/Attribute.xlsx
@@ -171,82 +171,83 @@
     </r>
   </si>
   <si>
+    <t>Skill10000_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10000_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10000_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10000_LV_5</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10001_LV_5</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10002_LV_5</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10003_LV_5</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_1</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_2</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_3</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_4</t>
+  </si>
+  <si>
+    <t>Skill10004_LV_5</t>
+  </si>
+  <si>
+    <t>MCR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Skill10000_LV_1</t>
-  </si>
-  <si>
-    <t>Skill10000_LV_2</t>
-  </si>
-  <si>
-    <t>Skill10000_LV_3</t>
-  </si>
-  <si>
-    <t>Skill10000_LV_4</t>
-  </si>
-  <si>
-    <t>Skill10000_LV_5</t>
-  </si>
-  <si>
-    <t>Skill10001_LV_1</t>
-  </si>
-  <si>
-    <t>Skill10001_LV_2</t>
-  </si>
-  <si>
-    <t>Skill10001_LV_3</t>
-  </si>
-  <si>
-    <t>Skill10001_LV_4</t>
-  </si>
-  <si>
-    <t>Skill10001_LV_5</t>
-  </si>
-  <si>
-    <t>Skill10002_LV_1</t>
-  </si>
-  <si>
-    <t>Skill10002_LV_2</t>
-  </si>
-  <si>
-    <t>Skill10002_LV_3</t>
-  </si>
-  <si>
-    <t>Skill10002_LV_4</t>
-  </si>
-  <si>
-    <t>Skill10002_LV_5</t>
-  </si>
-  <si>
-    <t>Skill10003_LV_1</t>
-  </si>
-  <si>
-    <t>Skill10003_LV_2</t>
-  </si>
-  <si>
-    <t>Skill10003_LV_3</t>
-  </si>
-  <si>
-    <t>Skill10003_LV_4</t>
-  </si>
-  <si>
-    <t>Skill10003_LV_5</t>
-  </si>
-  <si>
-    <t>Skill10004_LV_1</t>
-  </si>
-  <si>
-    <t>Skill10004_LV_2</t>
-  </si>
-  <si>
-    <t>Skill10004_LV_3</t>
-  </si>
-  <si>
-    <t>Skill10004_LV_4</t>
-  </si>
-  <si>
-    <t>Skill10004_LV_5</t>
-  </si>
-  <si>
-    <t>MCR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +255,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +273,14 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -298,11 +307,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,7 +638,7 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -1651,14 +1663,14 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
+      <c r="A19" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1711,13 +1723,13 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1770,13 +1782,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -1829,13 +1841,13 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -1888,13 +1900,13 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1947,13 +1959,13 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2006,13 +2018,13 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -2065,13 +2077,13 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -2124,13 +2136,13 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -2183,13 +2195,13 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -2242,13 +2254,13 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2301,13 +2313,13 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>4</v>
@@ -2360,13 +2372,13 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -2419,13 +2431,13 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>8</v>
@@ -2478,13 +2490,13 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -2537,13 +2549,13 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2596,13 +2608,13 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -2655,13 +2667,13 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -2714,13 +2726,13 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <v>8</v>
@@ -2773,13 +2785,13 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -2832,13 +2844,13 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2891,13 +2903,13 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -2950,13 +2962,13 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -3009,13 +3021,13 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -3068,13 +3080,13 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -3128,6 +3140,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>